--- a/Supplement/Data/CarbonateChemistry.xlsx
+++ b/Supplement/Data/CarbonateChemistry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\authoff\Documents\AWI\RProjects\SOT22\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\authoff\Documents\AWI\RProjects\TopTrons\Supplement\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBDCD33-CA9D-46D4-A027-310716A977A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4543C6FD-233B-454F-B634-AD3E8B7C75F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{015CCDCD-F5CE-449F-89E6-24B7547B7798}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
   <si>
     <t>D</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>pCO2_matm</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>t0</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t9</t>
   </si>
 </sst>
 </file>
@@ -462,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E4EF39-F166-46BC-9D15-1C06ACF9A2E2}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1048576"/>
+      <selection activeCell="F17" sqref="F17:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,14 +486,14 @@
     <col min="2" max="2" width="10.26953125" customWidth="1"/>
     <col min="3" max="3" width="6.453125" customWidth="1"/>
     <col min="4" max="4" width="5.54296875" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" customWidth="1"/>
+    <col min="5" max="6" width="6.36328125" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -498,19 +510,22 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -526,20 +541,23 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1">
         <v>8.0640003208616928</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>2312.4412755274325</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2204.653564453125</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>507.46454216230234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -555,20 +573,23 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1">
         <v>8.0640003945268877</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>2307.4587792923994</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2200.0693359375</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>506.40926749124606</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -584,20 +605,23 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
         <v>8.0639998668148376</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>2301.0279635488946</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>2193.816650390625</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>504.97066756178208</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>172</v>
       </c>
@@ -613,20 +637,23 @@
       <c r="E5">
         <v>15</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1">
         <v>8.2099999998265627</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>2308.7609108391111</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>2068.088134765625</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>373.72074524499237</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>173</v>
       </c>
@@ -642,20 +669,23 @@
       <c r="E6">
         <v>15</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1">
         <v>8.1949998423582802</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>2290.9661510039514</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>2133.680419921875</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>357.85690385862182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>174</v>
       </c>
@@ -671,20 +701,23 @@
       <c r="E7">
         <v>15</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1">
         <v>8.1660002649802905</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>2303.6513522583869</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>2123.756103515625</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>405.11357923715912</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>175</v>
       </c>
@@ -700,20 +733,23 @@
       <c r="E8">
         <v>15</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1">
         <v>8.1490001279142223</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>2300.5490120461759</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>2090.85498046875</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>439.9113273175023</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>176</v>
       </c>
@@ -729,20 +765,23 @@
       <c r="E9">
         <v>15</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1">
         <v>8.2029999050031055</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>2295.4984629681858</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>2136.559814453125</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>351.12608035167602</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>177</v>
       </c>
@@ -758,20 +797,23 @@
       <c r="E10">
         <v>15</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
         <v>8.2130003648862235</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>2292.9784158079383</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>2128.926025390625</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>342.23514968781143</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>178</v>
       </c>
@@ -787,20 +829,23 @@
       <c r="E11">
         <v>15</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
         <v>8.2010000983339708</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>2306.6455246070464</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>2071.84375</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>383.09692750491206</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>179</v>
       </c>
@@ -816,20 +861,23 @@
       <c r="E12">
         <v>15</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1">
         <v>8.2120000720225086</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>2306.7434061283807</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>2105.246337890625</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>358.96564215527997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>180</v>
       </c>
@@ -845,20 +893,23 @@
       <c r="E13">
         <v>15</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1">
         <v>8.1969993569244508</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>2299.473987470571</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>2104.938232421875</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>372.42368332579008</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>181</v>
       </c>
@@ -874,20 +925,23 @@
       <c r="E14">
         <v>15</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1">
         <v>8.2829998443943467</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>2294.4574127885776</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>2101.33447265625</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>284.7372274084409</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>182</v>
       </c>
@@ -903,20 +957,23 @@
       <c r="E15">
         <v>15</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1">
         <v>8.2270004504845371</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>2302.5826479594666</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>2095.06689453125</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>344.68833051322463</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>183</v>
       </c>
@@ -932,20 +989,23 @@
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1">
         <v>8.1280004307570852</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>2290.8928948026119</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>2093.24755859375</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>463.28568459972814</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>316</v>
       </c>
@@ -961,20 +1021,23 @@
       <c r="E17">
         <v>27</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1">
         <v>8.4630002402541002</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>2319.9819274471874</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>1927.85302734375</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>182.69584227507039</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>317</v>
       </c>
@@ -990,20 +1053,23 @@
       <c r="E18">
         <v>27</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1">
         <v>8.3560001534437127</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>2311.0520916010651</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>2083.9521484375</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>235.85986852397266</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>318</v>
       </c>
@@ -1019,20 +1085,23 @@
       <c r="E19">
         <v>27</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1">
         <v>8.3319998968841915</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>2276.8642549202364</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>2017.677490234375</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>255.45337185320582</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>319</v>
       </c>
@@ -1048,20 +1117,23 @@
       <c r="E20">
         <v>27</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1">
         <v>8.2969997615484097</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>2311.3384931624046</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>2022.8675537109375</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>293.78927043901041</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>320</v>
       </c>
@@ -1077,20 +1149,23 @@
       <c r="E21">
         <v>27</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="1">
         <v>8.4180001065846835</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>2301.4717476602732</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>2046.24658203125</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>198.44457893317295</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>321</v>
       </c>
@@ -1106,20 +1181,23 @@
       <c r="E22">
         <v>27</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1">
         <v>8.4329997839327415</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>2311.3078378606115</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>2045.20068359375</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>191.57093940338063</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>322</v>
       </c>
@@ -1135,20 +1213,23 @@
       <c r="E23">
         <v>27</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="1">
         <v>8.6009998089775621</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>2314.7936788149082</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>1823.7947998046875</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>119.62946625836321</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>323</v>
       </c>
@@ -1164,20 +1245,23 @@
       <c r="E24">
         <v>27</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="1">
         <v>8.3230001168981449</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>2287.0283854782506</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>2031.61962890625</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>263.64194419896972</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>324</v>
       </c>
@@ -1193,20 +1277,23 @@
       <c r="E25">
         <v>27</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="1">
         <v>8.5360001869675912</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>2317.7231385898694</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>1934.375732421875</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>145.42439645533548</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>325</v>
       </c>
@@ -1222,20 +1309,23 @@
       <c r="E26">
         <v>27</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="1">
         <v>8.4100000643433468</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>2295.9145046339495</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>2043.1768798828125</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>202.22199309936883</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>326</v>
       </c>
@@ -1251,20 +1341,23 @@
       <c r="E27">
         <v>27</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="1">
         <v>8.5509996558764723</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>2313.8526398682566</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>1920.1727294921875</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>138.89585278313697</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>327</v>
       </c>
@@ -1280,16 +1373,19 @@
       <c r="E28">
         <v>27</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1">
         <v>8.3459996492383173</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>2288.4562233311863</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>1972.2423095703125</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>252.8074089760635</v>
       </c>
     </row>
